--- a/File Exel/File Exel Công Việc.xlsx
+++ b/File Exel/File Exel Công Việc.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VanHieu\Desktop\Github\gif\manguon\File Exel\File Exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VanHieu\Desktop\Github\gif\manguon\File Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>Bùi Văn Hiếu</t>
   </si>
@@ -144,6 +145,18 @@
   </si>
   <si>
     <t>Xử lý hình ảnh trong game</t>
+  </si>
+  <si>
+    <t>WEEK 8</t>
+  </si>
+  <si>
+    <t>Thảo Luận</t>
+  </si>
+  <si>
+    <t>Tìm hiểu công cụ Trello</t>
+  </si>
+  <si>
+    <t>Tạo file MS Word</t>
   </si>
 </sst>
 </file>
@@ -194,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -203,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,6 +804,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
@@ -856,7 +954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -882,7 +980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -958,95 +1056,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1133,4 +1147,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/File Exel/File Exel Công Việc.xlsx
+++ b/File Exel/File Exel Công Việc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t>Bùi Văn Hiếu</t>
   </si>
@@ -157,6 +158,12 @@
   </si>
   <si>
     <t>Tạo file MS Word</t>
+  </si>
+  <si>
+    <t>WEEK 9</t>
+  </si>
+  <si>
+    <t>Làm Video Demo</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,4 +1267,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/File Exel/File Exel Công Việc.xlsx
+++ b/File Exel/File Exel Công Việc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>Bùi Văn Hiếu</t>
   </si>
@@ -164,6 +165,9 @@
   </si>
   <si>
     <t>Làm Video Demo</t>
+  </si>
+  <si>
+    <t>WEEK 10</t>
   </si>
 </sst>
 </file>
@@ -630,6 +634,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
@@ -1274,7 +1387,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
